--- a/NSE_Stocks.xlsx
+++ b/NSE_Stocks.xlsx
@@ -1177,7 +1177,7 @@
         <v>252</v>
       </c>
       <c r="F2" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1197,7 +1197,7 @@
         <v>252</v>
       </c>
       <c r="F3" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1217,7 +1217,7 @@
         <v>252</v>
       </c>
       <c r="F4" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1237,7 +1237,7 @@
         <v>252</v>
       </c>
       <c r="F5" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1257,7 +1257,7 @@
         <v>252</v>
       </c>
       <c r="F6" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1277,7 +1277,7 @@
         <v>252</v>
       </c>
       <c r="F7" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1297,7 +1297,7 @@
         <v>252</v>
       </c>
       <c r="F8" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1317,7 +1317,7 @@
         <v>252</v>
       </c>
       <c r="F9" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1337,7 +1337,7 @@
         <v>252</v>
       </c>
       <c r="F10" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1357,7 +1357,7 @@
         <v>252</v>
       </c>
       <c r="F11" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1377,7 +1377,7 @@
         <v>252</v>
       </c>
       <c r="F12" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1397,7 +1397,7 @@
         <v>252</v>
       </c>
       <c r="F13" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1417,7 +1417,7 @@
         <v>252</v>
       </c>
       <c r="F14" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1437,7 +1437,7 @@
         <v>252</v>
       </c>
       <c r="F15" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1457,7 +1457,7 @@
         <v>252</v>
       </c>
       <c r="F16" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1477,7 +1477,7 @@
         <v>252</v>
       </c>
       <c r="F17" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1497,7 +1497,7 @@
         <v>252</v>
       </c>
       <c r="F18" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1517,7 +1517,7 @@
         <v>252</v>
       </c>
       <c r="F19" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1537,7 +1537,7 @@
         <v>252</v>
       </c>
       <c r="F20" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1557,7 +1557,7 @@
         <v>252</v>
       </c>
       <c r="F21" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1577,7 +1577,7 @@
         <v>252</v>
       </c>
       <c r="F22" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1597,7 +1597,7 @@
         <v>252</v>
       </c>
       <c r="F23" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1617,7 +1617,7 @@
         <v>252</v>
       </c>
       <c r="F24" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1637,7 +1637,7 @@
         <v>252</v>
       </c>
       <c r="F25" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1657,7 +1657,7 @@
         <v>252</v>
       </c>
       <c r="F26" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1677,7 +1677,7 @@
         <v>252</v>
       </c>
       <c r="F27" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1697,7 +1697,7 @@
         <v>252</v>
       </c>
       <c r="F28" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1717,7 +1717,7 @@
         <v>252</v>
       </c>
       <c r="F29" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1737,7 +1737,7 @@
         <v>252</v>
       </c>
       <c r="F30" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1757,7 +1757,7 @@
         <v>252</v>
       </c>
       <c r="F31" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1777,7 +1777,7 @@
         <v>252</v>
       </c>
       <c r="F32" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1797,7 +1797,7 @@
         <v>252</v>
       </c>
       <c r="F33" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1817,7 +1817,7 @@
         <v>252</v>
       </c>
       <c r="F34" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1837,7 +1837,7 @@
         <v>252</v>
       </c>
       <c r="F35" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1857,7 +1857,7 @@
         <v>252</v>
       </c>
       <c r="F36" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1877,7 +1877,7 @@
         <v>252</v>
       </c>
       <c r="F37" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1897,7 +1897,7 @@
         <v>252</v>
       </c>
       <c r="F38" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1917,7 +1917,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1937,7 +1937,7 @@
         <v>252</v>
       </c>
       <c r="F40" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1957,7 +1957,7 @@
         <v>252</v>
       </c>
       <c r="F41" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1977,7 +1977,7 @@
         <v>252</v>
       </c>
       <c r="F42" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1997,7 +1997,7 @@
         <v>252</v>
       </c>
       <c r="F43" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2017,7 +2017,7 @@
         <v>252</v>
       </c>
       <c r="F44" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2037,7 +2037,7 @@
         <v>252</v>
       </c>
       <c r="F45" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2057,7 +2057,7 @@
         <v>252</v>
       </c>
       <c r="F46" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2077,7 +2077,7 @@
         <v>252</v>
       </c>
       <c r="F47" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2097,7 +2097,7 @@
         <v>252</v>
       </c>
       <c r="F48" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2117,7 +2117,7 @@
         <v>252</v>
       </c>
       <c r="F49" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2137,7 +2137,7 @@
         <v>252</v>
       </c>
       <c r="F50" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2157,7 +2157,7 @@
         <v>252</v>
       </c>
       <c r="F51" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2177,7 +2177,7 @@
         <v>252</v>
       </c>
       <c r="F52" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2197,7 +2197,7 @@
         <v>252</v>
       </c>
       <c r="F53" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2217,7 +2217,7 @@
         <v>252</v>
       </c>
       <c r="F54" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2237,7 +2237,7 @@
         <v>252</v>
       </c>
       <c r="F55" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2257,7 +2257,7 @@
         <v>252</v>
       </c>
       <c r="F56" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2277,7 +2277,7 @@
         <v>252</v>
       </c>
       <c r="F57" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2297,7 +2297,7 @@
         <v>252</v>
       </c>
       <c r="F58" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2317,7 +2317,7 @@
         <v>252</v>
       </c>
       <c r="F59" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2337,7 +2337,7 @@
         <v>252</v>
       </c>
       <c r="F60" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2357,7 +2357,7 @@
         <v>252</v>
       </c>
       <c r="F61" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2377,7 +2377,7 @@
         <v>252</v>
       </c>
       <c r="F62" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2397,7 +2397,7 @@
         <v>252</v>
       </c>
       <c r="F63" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>252</v>
       </c>
       <c r="F65" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>252</v>
       </c>
       <c r="F66" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>252</v>
       </c>
       <c r="F67" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>252</v>
       </c>
       <c r="F68" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>252</v>
       </c>
       <c r="F69" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>252</v>
       </c>
       <c r="F70" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>252</v>
       </c>
       <c r="F71" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>252</v>
       </c>
       <c r="F72" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>252</v>
       </c>
       <c r="F73" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>252</v>
       </c>
       <c r="F74" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>252</v>
       </c>
       <c r="F75" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>252</v>
       </c>
       <c r="F76" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>252</v>
       </c>
       <c r="F77" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>252</v>
       </c>
       <c r="F78" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>252</v>
       </c>
       <c r="F79" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>252</v>
       </c>
       <c r="F80" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>252</v>
       </c>
       <c r="F81" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>252</v>
       </c>
       <c r="F82" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>252</v>
       </c>
       <c r="F83" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>252</v>
       </c>
       <c r="F84" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>252</v>
       </c>
       <c r="F85" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>252</v>
       </c>
       <c r="F86" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>252</v>
       </c>
       <c r="F87" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2891,7 +2891,7 @@
         <v>252</v>
       </c>
       <c r="F88" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2911,7 +2911,7 @@
         <v>252</v>
       </c>
       <c r="F89" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2931,7 +2931,7 @@
         <v>252</v>
       </c>
       <c r="F90" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2951,7 +2951,7 @@
         <v>252</v>
       </c>
       <c r="F91" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2971,7 +2971,7 @@
         <v>252</v>
       </c>
       <c r="F92" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2991,7 +2991,7 @@
         <v>252</v>
       </c>
       <c r="F93" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3011,7 +3011,7 @@
         <v>252</v>
       </c>
       <c r="F94" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3031,7 +3031,7 @@
         <v>252</v>
       </c>
       <c r="F95" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3051,7 +3051,7 @@
         <v>252</v>
       </c>
       <c r="F96" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3071,7 +3071,7 @@
         <v>252</v>
       </c>
       <c r="F97" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3091,7 +3091,7 @@
         <v>252</v>
       </c>
       <c r="F98" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3111,7 +3111,7 @@
         <v>252</v>
       </c>
       <c r="F99" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3131,7 +3131,7 @@
         <v>252</v>
       </c>
       <c r="F100" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3151,7 +3151,7 @@
         <v>252</v>
       </c>
       <c r="F101" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3171,7 +3171,7 @@
         <v>252</v>
       </c>
       <c r="F102" s="2">
-        <v>42774</v>
+        <v>42780</v>
       </c>
     </row>
   </sheetData>
